--- a/Homework/HW2/ImpBinomial_Autocall.xlsx
+++ b/Homework/HW2/ImpBinomial_Autocall.xlsx
@@ -775,7 +775,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView topLeftCell="AG4" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -8442,7 +8442,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -9782,7 +9784,7 @@
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="26">
-        <f>IF(Stock!AM16 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN15 + (1 - p) * Autocall!AN16) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM16 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN15 + (1 - p) * Autocall!AN16) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN16" s="15">
@@ -9888,7 +9890,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM17" s="26">
-        <f>IF(Stock!AM17 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN16 + (1 - p) * Autocall!AN17) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM17 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN16 + (1 - p) * Autocall!AN17) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN17" s="15">
@@ -9997,7 +9999,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM18" s="26">
-        <f>IF(Stock!AM18 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN17 + (1 - p) * Autocall!AN18) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM18 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN17 + (1 - p) * Autocall!AN18) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN18" s="15">
@@ -10109,7 +10111,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM19" s="26">
-        <f>IF(Stock!AM19 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN18 + (1 - p) * Autocall!AN19) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM19 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN18 + (1 - p) * Autocall!AN19) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN19" s="15">
@@ -10225,7 +10227,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM20" s="26">
-        <f>IF(Stock!AM20 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN19 + (1 - p) * Autocall!AN20) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM20 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN19 + (1 - p) * Autocall!AN20) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN20" s="15">
@@ -10339,7 +10341,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM21" s="26">
-        <f>IF(Stock!AM21 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN20 + (1 - p) * Autocall!AN21) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM21 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN20 + (1 - p) * Autocall!AN21) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN21" s="15">
@@ -10456,7 +10458,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM22" s="26">
-        <f>IF(Stock!AM22 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN21 + (1 - p) * Autocall!AN22) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM22 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN21 + (1 - p) * Autocall!AN22) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN22" s="15">
@@ -10576,7 +10578,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM23" s="26">
-        <f>IF(Stock!AM23 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN22 + (1 - p) * Autocall!AN23) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM23 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN22 + (1 - p) * Autocall!AN23) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN23" s="15">
@@ -10699,7 +10701,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM24" s="26">
-        <f>IF(Stock!AM24 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN23 + (1 - p) * Autocall!AN24) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM24 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN23 + (1 - p) * Autocall!AN24) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN24" s="15">
@@ -10825,7 +10827,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM25" s="26">
-        <f>IF(Stock!AM25 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN24 + (1 - p) * Autocall!AN25) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM25 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN24 + (1 - p) * Autocall!AN25) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN25" s="15">
@@ -10954,7 +10956,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM26" s="26">
-        <f>IF(Stock!AM26 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN25 + (1 - p) * Autocall!AN26) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM26 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN25 + (1 - p) * Autocall!AN26) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN26" s="15">
@@ -11086,7 +11088,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM27" s="26">
-        <f>IF(Stock!AM27 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN26 + (1 - p) * Autocall!AN27) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM27 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN26 + (1 - p) * Autocall!AN27) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN27" s="15">
@@ -11173,7 +11175,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="26">
-        <f>IF(Stock!AA28 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB27 + (1 - p) * Autocall!AB28) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA28 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB27 + (1 - p) * Autocall!AB28) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB28" s="15">
@@ -11221,7 +11223,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM28" s="26">
-        <f>IF(Stock!AM28 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN27 + (1 - p) * Autocall!AN28) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM28 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN27 + (1 - p) * Autocall!AN28) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN28" s="15">
@@ -11311,7 +11313,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA29" s="26">
-        <f>IF(Stock!AA29 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB28 + (1 - p) * Autocall!AB29) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA29 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB28 + (1 - p) * Autocall!AB29) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB29" s="15">
@@ -11359,7 +11361,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM29" s="26">
-        <f>IF(Stock!AM29 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN28 + (1 - p) * Autocall!AN29) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM29 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN28 + (1 - p) * Autocall!AN29) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN29" s="15">
@@ -11452,7 +11454,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA30" s="26">
-        <f>IF(Stock!AA30 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB29 + (1 - p) * Autocall!AB30) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA30 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB29 + (1 - p) * Autocall!AB30) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB30" s="15">
@@ -11500,7 +11502,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM30" s="26">
-        <f>IF(Stock!AM30 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN29 + (1 - p) * Autocall!AN30) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM30 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN29 + (1 - p) * Autocall!AN30) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN30" s="15">
@@ -11596,7 +11598,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA31" s="26">
-        <f>IF(Stock!AA31 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB30 + (1 - p) * Autocall!AB31) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA31 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB30 + (1 - p) * Autocall!AB31) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB31" s="15">
@@ -11644,7 +11646,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM31" s="26">
-        <f>IF(Stock!AM31 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN30 + (1 - p) * Autocall!AN31) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM31 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN30 + (1 - p) * Autocall!AN31) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN31" s="15">
@@ -11743,7 +11745,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA32" s="26">
-        <f>IF(Stock!AA32 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB31 + (1 - p) * Autocall!AB32) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA32 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB31 + (1 - p) * Autocall!AB32) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB32" s="15">
@@ -11791,7 +11793,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM32" s="26">
-        <f>IF(Stock!AM32 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN31 + (1 - p) * Autocall!AN32) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM32 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN31 + (1 - p) * Autocall!AN32) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN32" s="15">
@@ -11893,7 +11895,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA33" s="26">
-        <f>IF(Stock!AA33 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB32 + (1 - p) * Autocall!AB33) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA33 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB32 + (1 - p) * Autocall!AB33) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB33" s="15">
@@ -11941,7 +11943,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM33" s="26">
-        <f>IF(Stock!AM33 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN32 + (1 - p) * Autocall!AN33) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM33 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN32 + (1 - p) * Autocall!AN33) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN33" s="15">
@@ -12046,7 +12048,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA34" s="26">
-        <f>IF(Stock!AA34 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB33 + (1 - p) * Autocall!AB34) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA34 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB33 + (1 - p) * Autocall!AB34) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB34" s="15">
@@ -12094,7 +12096,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AM34" s="26">
-        <f>IF(Stock!AM34 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN33 + (1 - p) * Autocall!AN34) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM34 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN33 + (1 - p) * Autocall!AN34) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AN34" s="15">
@@ -12202,7 +12204,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA35" s="26">
-        <f>IF(Stock!AA35 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB34 + (1 - p) * Autocall!AB35) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA35 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB34 + (1 - p) * Autocall!AB35) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB35" s="15">
@@ -12250,7 +12252,7 @@
         <v>976.87917571581283</v>
       </c>
       <c r="AM35" s="26">
-        <f>IF(Stock!AM35 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN34 + (1 - p) * Autocall!AN35) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM35 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN34 + (1 - p) * Autocall!AN35) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>950.15505695507795</v>
       </c>
       <c r="AN35" s="15">
@@ -12361,7 +12363,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA36" s="26">
-        <f>IF(Stock!AA36 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB35 + (1 - p) * Autocall!AB36) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA36 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB35 + (1 - p) * Autocall!AB36) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB36" s="15">
@@ -12409,7 +12411,7 @@
         <v>927.34252111239209</v>
       </c>
       <c r="AM36" s="26">
-        <f>IF(Stock!AM36 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN35 + (1 - p) * Autocall!AN36) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM36 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN35 + (1 - p) * Autocall!AN36) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>906.02844777485063</v>
       </c>
       <c r="AN36" s="15">
@@ -12523,7 +12525,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA37" s="26">
-        <f>IF(Stock!AA37 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB36 + (1 - p) * Autocall!AB37) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA37 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB36 + (1 - p) * Autocall!AB37) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB37" s="15">
@@ -12571,7 +12573,7 @@
         <v>879.61758802023496</v>
       </c>
       <c r="AM37" s="26">
-        <f>IF(Stock!AM37 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN36 + (1 - p) * Autocall!AN37) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM37 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN36 + (1 - p) * Autocall!AN37) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>854.79157317602198</v>
       </c>
       <c r="AN37" s="15">
@@ -12688,7 +12690,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA38" s="26">
-        <f>IF(Stock!AA38 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB37 + (1 - p) * Autocall!AB38) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA38 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB37 + (1 - p) * Autocall!AB38) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB38" s="15">
@@ -12736,7 +12738,7 @@
         <v>827.36619978025499</v>
       </c>
       <c r="AM38" s="26">
-        <f>IF(Stock!AM38 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN37 + (1 - p) * Autocall!AN38) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM38 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN37 + (1 - p) * Autocall!AN38) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>801.52003371188209</v>
       </c>
       <c r="AN38" s="15">
@@ -12856,7 +12858,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA39" s="26">
-        <f>IF(Stock!AA39 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB38 + (1 - p) * Autocall!AB39) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA39 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB38 + (1 - p) * Autocall!AB39) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB39" s="15">
@@ -12904,7 +12906,7 @@
         <v>774.84004518988138</v>
       </c>
       <c r="AM39" s="26">
-        <f>IF(Stock!AM39 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN38 + (1 - p) * Autocall!AN39) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM39 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN38 + (1 - p) * Autocall!AN39) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>749.67312032768109</v>
       </c>
       <c r="AN39" s="15">
@@ -13027,7 +13029,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="AA40" s="26">
-        <f>IF(Stock!AA40 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB39 + (1 - p) * Autocall!AB40) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA40 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB39 + (1 - p) * Autocall!AB40) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="AB40" s="15">
@@ -13075,7 +13077,7 @@
         <v>724.48954533316908</v>
       </c>
       <c r="AM40" s="26">
-        <f>IF(Stock!AM40 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN39 + (1 - p) * Autocall!AN40) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM40 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN39 + (1 - p) * Autocall!AN40) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>700.72884224088011</v>
       </c>
       <c r="AN40" s="15">
@@ -13149,7 +13151,7 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="26">
-        <f>IF(Stock!N41 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O40 + (1 - p) * Autocall!O41) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N41 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O40 + (1 - p) * Autocall!O41) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O41" s="15">
@@ -13201,7 +13203,7 @@
         <v>975.34402424928635</v>
       </c>
       <c r="AA41" s="26">
-        <f>IF(Stock!AA41 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB40 + (1 - p) * Autocall!AB41) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA41 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB40 + (1 - p) * Autocall!AB41) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>947.13616111770057</v>
       </c>
       <c r="AB41" s="15">
@@ -13249,7 +13251,7 @@
         <v>677.18929001645574</v>
       </c>
       <c r="AM41" s="26">
-        <f>IF(Stock!AM41 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN40 + (1 - p) * Autocall!AN41) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM41 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN40 + (1 - p) * Autocall!AN41) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>654.97971896844808</v>
       </c>
       <c r="AN41" s="15">
@@ -13326,7 +13328,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N42" s="26">
-        <f>IF(Stock!N42 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O41 + (1 - p) * Autocall!O42) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N42 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O41 + (1 - p) * Autocall!O42) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O42" s="15">
@@ -13378,7 +13380,7 @@
         <v>925.75252098398823</v>
       </c>
       <c r="AA42" s="26">
-        <f>IF(Stock!AA42 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB41 + (1 - p) * Autocall!AB42) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA42 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB41 + (1 - p) * Autocall!AB42) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>905.81716055904712</v>
       </c>
       <c r="AB42" s="15">
@@ -13426,7 +13428,7 @@
         <v>633.02036649420575</v>
       </c>
       <c r="AM42" s="26">
-        <f>IF(Stock!AM42 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN41 + (1 - p) * Autocall!AN42) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM42 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN41 + (1 - p) * Autocall!AN42) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>612.302711803992</v>
       </c>
       <c r="AN42" s="15">
@@ -13506,7 +13508,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N43" s="26">
-        <f>IF(Stock!N43 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O42 + (1 - p) * Autocall!O43) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N43 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O42 + (1 - p) * Autocall!O43) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O43" s="15">
@@ -13558,7 +13560,7 @@
         <v>881.55075147223295</v>
       </c>
       <c r="AA43" s="26">
-        <f>IF(Stock!AA43 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB42 + (1 - p) * Autocall!AB43) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA43 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB42 + (1 - p) * Autocall!AB43) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>858.79721346262636</v>
       </c>
       <c r="AB43" s="15">
@@ -13606,7 +13608,7 @@
         <v>591.82156773534268</v>
       </c>
       <c r="AM43" s="26">
-        <f>IF(Stock!AM43 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN42 + (1 - p) * Autocall!AN43) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM43 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN42 + (1 - p) * Autocall!AN43) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>572.49962840258263</v>
       </c>
       <c r="AN43" s="15">
@@ -13689,7 +13691,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N44" s="26">
-        <f>IF(Stock!N44 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O43 + (1 - p) * Autocall!O44) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N44 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O43 + (1 - p) * Autocall!O44) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O44" s="15">
@@ -13741,7 +13743,7 @@
         <v>833.39195406552187</v>
       </c>
       <c r="AA44" s="26">
-        <f>IF(Stock!AA44 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB43 + (1 - p) * Autocall!AB44) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA44 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB43 + (1 - p) * Autocall!AB44) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>809.50135180915004</v>
       </c>
       <c r="AB44" s="15">
@@ -13789,7 +13791,7 @@
         <v>553.39723909301324</v>
       </c>
       <c r="AM44" s="26">
-        <f>IF(Stock!AM44 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN43 + (1 - p) * Autocall!AN44) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM44 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN43 + (1 - p) * Autocall!AN44) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>535.37711361766401</v>
       </c>
       <c r="AN44" s="15">
@@ -13875,7 +13877,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N45" s="26">
-        <f>IF(Stock!N45 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O44 + (1 - p) * Autocall!O45) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N45 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O44 + (1 - p) * Autocall!O45) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O45" s="15">
@@ -13927,7 +13929,7 @@
         <v>784.1877218186761</v>
       </c>
       <c r="AA45" s="26">
-        <f>IF(Stock!AA45 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB44 + (1 - p) * Autocall!AB45) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA45 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB44 + (1 - p) * Autocall!AB45) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>760.34757090975791</v>
       </c>
       <c r="AB45" s="15">
@@ -13975,7 +13977,7 @@
         <v>517.56062578996125</v>
       </c>
       <c r="AM45" s="26">
-        <f>IF(Stock!AM45 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN44 + (1 - p) * Autocall!AN45) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM45 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN44 + (1 - p) * Autocall!AN45) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>500.75464253775516</v>
       </c>
       <c r="AN45" s="15">
@@ -14064,7 +14066,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N46" s="26">
-        <f>IF(Stock!N46 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O45 + (1 - p) * Autocall!O46) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N46 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O45 + (1 - p) * Autocall!O46) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O46" s="15">
@@ -14116,7 +14118,7 @@
         <v>735.87920192822764</v>
       </c>
       <c r="AA46" s="26">
-        <f>IF(Stock!AA46 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB45 + (1 - p) * Autocall!AB46) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA46 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB45 + (1 - p) * Autocall!AB46) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>712.81800720355284</v>
       </c>
       <c r="AB46" s="15">
@@ -14164,7 +14166,7 @@
         <v>484.13745618856154</v>
       </c>
       <c r="AM46" s="26">
-        <f>IF(Stock!AM46 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN45 + (1 - p) * Autocall!AN46) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM46 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN45 + (1 - p) * Autocall!AN46) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>468.46384783744236</v>
       </c>
       <c r="AN46" s="15">
@@ -14256,7 +14258,7 @@
         <v>1004.9381139718853</v>
       </c>
       <c r="N47" s="26">
-        <f>IF(Stock!N47 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O46 + (1 - p) * Autocall!O47) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N47 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O46 + (1 - p) * Autocall!O47) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>1005.3333333333334</v>
       </c>
       <c r="O47" s="15">
@@ -14308,7 +14310,7 @@
         <v>689.6030239940992</v>
       </c>
       <c r="AA47" s="26">
-        <f>IF(Stock!AA47 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB46 + (1 - p) * Autocall!AB47) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA47 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB46 + (1 - p) * Autocall!AB47) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>667.71649913302497</v>
       </c>
       <c r="AB47" s="15">
@@ -14356,7 +14358,7 @@
         <v>452.96519510582164</v>
       </c>
       <c r="AM47" s="26">
-        <f>IF(Stock!AM47 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN46 + (1 - p) * Autocall!AN47) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM47 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN46 + (1 - p) * Autocall!AN47) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>438.3477010155936</v>
       </c>
       <c r="AN47" s="15">
@@ -14451,7 +14453,7 @@
         <v>965.14773433882215</v>
       </c>
       <c r="N48" s="26">
-        <f>IF(Stock!N48 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O47 + (1 - p) * Autocall!O48) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N48 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O47 + (1 - p) * Autocall!O48) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>927.08502099337136</v>
       </c>
       <c r="O48" s="15">
@@ -14503,7 +14505,7 @@
         <v>645.91619458221203</v>
       </c>
       <c r="AA48" s="26">
-        <f>IF(Stock!AA48 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB47 + (1 - p) * Autocall!AB48) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA48 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB47 + (1 - p) * Autocall!AB48) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>625.36210839499449</v>
       </c>
       <c r="AB48" s="15">
@@ -14551,7 +14553,7 @@
         <v>423.89225341300818</v>
       </c>
       <c r="AM48" s="26">
-        <f>IF(Stock!AM48 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN47 + (1 - p) * Autocall!AN48) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM48 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN47 + (1 - p) * Autocall!AN48) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>410.25974877370061</v>
       </c>
       <c r="AN48" s="15">
@@ -14649,7 +14651,7 @@
         <v>905.25568255788346</v>
       </c>
       <c r="N49" s="26">
-        <f>IF(Stock!N49 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O48 + (1 - p) * Autocall!O49) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N49 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O48 + (1 - p) * Autocall!O49) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>884.87404762238623</v>
       </c>
       <c r="O49" s="15">
@@ -14701,7 +14703,7 @@
         <v>604.98477975021274</v>
       </c>
       <c r="AA49" s="26">
-        <f>IF(Stock!AA49 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB48 + (1 - p) * Autocall!AB49) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA49 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB48 + (1 - p) * Autocall!AB49) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>585.7732753814829</v>
       </c>
       <c r="AB49" s="15">
@@ -14749,7 +14751,7 @@
         <v>396.77725086538322</v>
       </c>
       <c r="AM49" s="26">
-        <f>IF(Stock!AM49 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN48 + (1 - p) * Autocall!AN49) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM49 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN48 + (1 - p) * Autocall!AN49) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>384.06340082089764</v>
       </c>
       <c r="AN49" s="15">
@@ -14850,7 +14852,7 @@
         <v>861.3004407739935</v>
       </c>
       <c r="N50" s="26">
-        <f>IF(Stock!N50 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O49 + (1 - p) * Autocall!O50) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N50 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O49 + (1 - p) * Autocall!O50) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>839.20031464590579</v>
       </c>
       <c r="O50" s="15">
@@ -14902,7 +14904,7 @@
         <v>566.75687720163899</v>
       </c>
       <c r="AA50" s="26">
-        <f>IF(Stock!AA50 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB49 + (1 - p) * Autocall!AB50) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA50 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB49 + (1 - p) * Autocall!AB50) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>548.83012490517478</v>
       </c>
       <c r="AB50" s="15">
@@ -14950,7 +14952,7 @@
         <v>371.4883285772251</v>
       </c>
       <c r="AM50" s="26">
-        <f>IF(Stock!AM50 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN49 + (1 - p) * Autocall!AN50) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM50 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN49 + (1 - p) * Autocall!AN50) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>359.63126564228548</v>
       </c>
       <c r="AN50" s="15">
@@ -15054,7 +15056,7 @@
         <v>815.09341327659263</v>
       </c>
       <c r="N51" s="26">
-        <f>IF(Stock!N51 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O50 + (1 - p) * Autocall!O51) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N51 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O50 + (1 - p) * Autocall!O51) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>792.44254138271742</v>
       </c>
       <c r="O51" s="15">
@@ -15106,7 +15108,7 @@
         <v>531.09152268268861</v>
       </c>
       <c r="AA51" s="26">
-        <f>IF(Stock!AA51 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB50 + (1 - p) * Autocall!AB51) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA51 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB50 + (1 - p) * Autocall!AB51) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>514.37121717495256</v>
       </c>
       <c r="AB51" s="15">
@@ -15154,7 +15156,7 @@
         <v>347.90250779873827</v>
       </c>
       <c r="AM51" s="26">
-        <f>IF(Stock!AM51 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN50 + (1 - p) * Autocall!AN51) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM51 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN50 + (1 - p) * Autocall!AN51) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>336.8445310004401</v>
       </c>
       <c r="AN51" s="15">
@@ -15261,7 +15263,7 @@
         <v>768.57375652440396</v>
       </c>
       <c r="N52" s="26">
-        <f>IF(Stock!N52 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O51 + (1 - p) * Autocall!O52) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N52 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O51 + (1 - p) * Autocall!O52) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>746.11687986647974</v>
       </c>
       <c r="O52" s="15">
@@ -15313,7 +15315,7 @@
         <v>497.82599848847781</v>
       </c>
       <c r="AA52" s="26">
-        <f>IF(Stock!AA52 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB51 + (1 - p) * Autocall!AB52) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA52 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB51 + (1 - p) * Autocall!AB52) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>482.23247455918658</v>
       </c>
       <c r="AB52" s="15">
@@ -15361,7 +15363,7 @@
         <v>325.9050918766136</v>
       </c>
       <c r="AM52" s="26">
-        <f>IF(Stock!AM52 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN51 + (1 - p) * Autocall!AN52) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM52 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN51 + (1 - p) * Autocall!AN52) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>315.59238615751138</v>
       </c>
       <c r="AN52" s="15">
@@ -15470,7 +15472,7 @@
         <v>722.98880838413493</v>
       </c>
       <c r="N53" s="26">
-        <f>IF(Stock!N53 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O52 + (1 - p) * Autocall!O53) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
+        <f>IF(Stock!N53 * EXP(rate * (0.25 - $N$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!O52 + (1 - p) * Autocall!O53) + EXP(-rate * (3/12 - $N$55)) * coupon)</f>
         <v>701.21202759404537</v>
       </c>
       <c r="O53" s="15">
@@ -15522,7 +15524,7 @@
         <v>466.80049997602572</v>
       </c>
       <c r="AA53" s="26">
-        <f>IF(Stock!AA53 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB52 + (1 - p) * Autocall!AB53) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
+        <f>IF(Stock!AA53 * EXP(rate * (0.5 - $AA$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AB52 + (1 - p) * Autocall!AB53) + EXP(-rate * (6/12 - $AA$55)) * coupon)</f>
         <v>452.2580954701188</v>
       </c>
       <c r="AB53" s="15">
@@ -15570,7 +15572,7 @@
         <v>305.38910849000581</v>
       </c>
       <c r="AM53" s="26">
-        <f>IF(Stock!AM53 &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN52 + (1 - p) * Autocall!AN53) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
+        <f>IF(Stock!AM53 * EXP(rate * (0.75 - $AM$55)) &gt;= Stock!$B$53, Face + coupon, EXP(-rate * Dt) * (p * Autocall!AN52 + (1 - p) * Autocall!AN53) + EXP(-rate * (9/12 - $AM$55)) * coupon)</f>
         <v>295.77148300821108</v>
       </c>
       <c r="AN53" s="15">
